--- a/src/test/java/ApachePOI/Resources/CampusReport.xlsx
+++ b/src/test/java/ApachePOI/Resources/CampusReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="176">
   <si>
     <t>f934faee-2c94-4c2b-b933-8c1017a07889</t>
   </si>
@@ -524,6 +524,30 @@
   </si>
   <si>
     <t>PT18.9629597S</t>
+  </si>
+  <si>
+    <t>04c80963-c1da-46a9-beb6-4133d0481392</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_01_59</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_02_05</t>
+  </si>
+  <si>
+    <t>PT5.3599447S</t>
+  </si>
+  <si>
+    <t>4b04eaf8-8f23-42b1-8c34-0e8c0196e588</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_02_09</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_02_16</t>
+  </si>
+  <si>
+    <t>PT7.2188974S</t>
   </si>
 </sst>
 </file>
@@ -879,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -2234,6 +2258,46 @@
         <v>167</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="E68" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="F68" t="s" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="1">
+        <v>173</v>
+      </c>
+      <c r="E69" t="s" s="1">
+        <v>174</v>
+      </c>
+      <c r="F69" t="s" s="1">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/CampusReport.xlsx
+++ b/src/test/java/ApachePOI/Resources/CampusReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="194">
   <si>
     <t>f934faee-2c94-4c2b-b933-8c1017a07889</t>
   </si>
@@ -548,6 +548,60 @@
   </si>
   <si>
     <t>PT7.2188974S</t>
+  </si>
+  <si>
+    <t>ae36fa6e-f222-4071-aec0-1c31450a4470</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_53_58</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_54_06</t>
+  </si>
+  <si>
+    <t>PT8.3587541S</t>
+  </si>
+  <si>
+    <t>4b08957a-055f-48e6-8ec5-01493c4c5f9e</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_54_11</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_54_19</t>
+  </si>
+  <si>
+    <t>PT8.0514124S</t>
+  </si>
+  <si>
+    <t>2958d93b-e068-4570-8ae0-9059f8fff0cb</t>
+  </si>
+  <si>
+    <t>Create country with parameters</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_54_22</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_54_31</t>
+  </si>
+  <si>
+    <t>PT8.6318558S</t>
+  </si>
+  <si>
+    <t>adf99497-3ed2-4980-9f65-2c598b736c6b</t>
+  </si>
+  <si>
+    <t>Delete country with parameters</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_54_34</t>
+  </si>
+  <si>
+    <t>03_28_2024_19_54_42</t>
+  </si>
+  <si>
+    <t>PT7.9847116S</t>
   </si>
 </sst>
 </file>
@@ -903,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -2298,6 +2352,86 @@
         <v>175</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="E70" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="F70" t="s" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="E71" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="F71" t="s" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="1">
+        <v>186</v>
+      </c>
+      <c r="E72" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="F72" t="s" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="E73" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="F73" t="s" s="1">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/CampusReport.xlsx
+++ b/src/test/java/ApachePOI/Resources/CampusReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="202">
   <si>
     <t>f934faee-2c94-4c2b-b933-8c1017a07889</t>
   </si>
@@ -602,6 +602,30 @@
   </si>
   <si>
     <t>PT7.9847116S</t>
+  </si>
+  <si>
+    <t>31b57bd0-6c05-41b5-8f14-48622428d41d</t>
+  </si>
+  <si>
+    <t>03_28_2024_22_55_57</t>
+  </si>
+  <si>
+    <t>03_28_2024_22_56_08</t>
+  </si>
+  <si>
+    <t>PT11.1655475S</t>
+  </si>
+  <si>
+    <t>8c06243c-0e6f-4b2d-852c-38835e66d1ea</t>
+  </si>
+  <si>
+    <t>03_28_2024_22_56_13</t>
+  </si>
+  <si>
+    <t>03_28_2024_22_56_24</t>
+  </si>
+  <si>
+    <t>PT10.9984168S</t>
   </si>
 </sst>
 </file>
@@ -957,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -2432,6 +2456,46 @@
         <v>193</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="E74" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="F74" t="s" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="E75" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="F75" t="s" s="1">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/CampusReport.xlsx
+++ b/src/test/java/ApachePOI/Resources/CampusReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="210">
   <si>
     <t>f934faee-2c94-4c2b-b933-8c1017a07889</t>
   </si>
@@ -626,6 +626,30 @@
   </si>
   <si>
     <t>PT10.9984168S</t>
+  </si>
+  <si>
+    <t>65840174-3784-43b7-86fe-cfe855126c5e</t>
+  </si>
+  <si>
+    <t>03_29_2024_00_15_59</t>
+  </si>
+  <si>
+    <t>03_29_2024_00_16_05</t>
+  </si>
+  <si>
+    <t>PT5.90775S</t>
+  </si>
+  <si>
+    <t>c11cb73a-64df-47c9-be4c-b157d0f70c74</t>
+  </si>
+  <si>
+    <t>03_29_2024_00_16_09</t>
+  </si>
+  <si>
+    <t>03_29_2024_00_16_17</t>
+  </si>
+  <si>
+    <t>PT8.3585238S</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -2496,6 +2520,46 @@
         <v>201</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="E76" t="s" s="1">
+        <v>204</v>
+      </c>
+      <c r="F76" t="s" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="E77" t="s" s="1">
+        <v>208</v>
+      </c>
+      <c r="F77" t="s" s="1">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/CampusReport.xlsx
+++ b/src/test/java/ApachePOI/Resources/CampusReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="218">
   <si>
     <t>f934faee-2c94-4c2b-b933-8c1017a07889</t>
   </si>
@@ -650,6 +650,30 @@
   </si>
   <si>
     <t>PT8.3585238S</t>
+  </si>
+  <si>
+    <t>fbf5b3ef-ff2a-4377-8ee5-2ff374a17834</t>
+  </si>
+  <si>
+    <t>03_29_2024_00_50_21</t>
+  </si>
+  <si>
+    <t>03_29_2024_00_50_25</t>
+  </si>
+  <si>
+    <t>PT4.6149824S</t>
+  </si>
+  <si>
+    <t>a704fdc1-f561-4742-8fc0-2c7026149b55</t>
+  </si>
+  <si>
+    <t>03_29_2024_00_50_29</t>
+  </si>
+  <si>
+    <t>03_29_2024_00_50_37</t>
+  </si>
+  <si>
+    <t>PT7.6256317S</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -2560,6 +2584,46 @@
         <v>209</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="E78" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="F78" t="s" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="E79" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="F79" t="s" s="1">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/CampusReport.xlsx
+++ b/src/test/java/ApachePOI/Resources/CampusReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="335">
   <si>
     <t>f934faee-2c94-4c2b-b933-8c1017a07889</t>
   </si>
@@ -674,6 +674,357 @@
   </si>
   <si>
     <t>PT7.6256317S</t>
+  </si>
+  <si>
+    <t>e4df7eb7-d678-40e5-b011-509d824494e4</t>
+  </si>
+  <si>
+    <t>03_29_2024_12_23_51</t>
+  </si>
+  <si>
+    <t>03_29_2024_12_23_56</t>
+  </si>
+  <si>
+    <t>PT5.5799306S</t>
+  </si>
+  <si>
+    <t>ca386d22-4d06-4970-b41d-1275ef2dafa9</t>
+  </si>
+  <si>
+    <t>03_29_2024_12_24_01</t>
+  </si>
+  <si>
+    <t>03_29_2024_12_24_19</t>
+  </si>
+  <si>
+    <t>PT17.9607231S</t>
+  </si>
+  <si>
+    <t>ab85a181-5494-4a5b-a5fb-4731ba07a947</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_39_43</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_39_49</t>
+  </si>
+  <si>
+    <t>PT5.2063024S</t>
+  </si>
+  <si>
+    <t>5ecb7ddb-2dd3-4317-b0fd-37bdcb657596</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_40_17</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_40_27</t>
+  </si>
+  <si>
+    <t>PT9.1684863S</t>
+  </si>
+  <si>
+    <t>cda1870a-36c8-4c0b-b8e5-c3696d177e29</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_40_38</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_40_46</t>
+  </si>
+  <si>
+    <t>PT8.7486547S</t>
+  </si>
+  <si>
+    <t>01af5997-cc8d-4e51-b9e3-bfbc975f8d68</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_40_54</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_41_02</t>
+  </si>
+  <si>
+    <t>PT7.3680984S</t>
+  </si>
+  <si>
+    <t>99ff5540-89be-428e-97b7-c4f6117ee06d</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_41_20</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_41_27</t>
+  </si>
+  <si>
+    <t>PT6.436561S</t>
+  </si>
+  <si>
+    <t>1f6456b7-012c-45ce-96e2-27487a62063d</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_41_29</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_41_40</t>
+  </si>
+  <si>
+    <t>PT11.1762003S</t>
+  </si>
+  <si>
+    <t>ac8270d3-de49-4a5a-bd29-015b534fc6b2</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_41_32</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_41_41</t>
+  </si>
+  <si>
+    <t>PT9.0270024S</t>
+  </si>
+  <si>
+    <t>1467b312-dd7d-4cca-917e-41e0326e138a</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_41_45</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_41_55</t>
+  </si>
+  <si>
+    <t>PT10.9573531S</t>
+  </si>
+  <si>
+    <t>06343c07-c56d-4b54-968c-7b6264c66ef1</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_42_07</t>
+  </si>
+  <si>
+    <t>PT21.9884753S</t>
+  </si>
+  <si>
+    <t>0382b33b-fc32-4881-9751-51bfd622db0b</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_52_44</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_52_49</t>
+  </si>
+  <si>
+    <t>PT5.1097919S</t>
+  </si>
+  <si>
+    <t>f50196b8-72f2-4f9c-9d83-d6ec7ffa4a31</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_52_50</t>
+  </si>
+  <si>
+    <t>PT6.3370493S</t>
+  </si>
+  <si>
+    <t>8994bcad-5313-44ff-a50d-4a9e7c77268a</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_52_54</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_53_03</t>
+  </si>
+  <si>
+    <t>PT8.9847541S</t>
+  </si>
+  <si>
+    <t>1231ad32-029f-40d9-8ac8-210be278fdce</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_53_07</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_53_16</t>
+  </si>
+  <si>
+    <t>PT9.4294814S</t>
+  </si>
+  <si>
+    <t>e27b2496-21d2-48cc-bd78-c4907c98a6ae</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_52_55</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_53_20</t>
+  </si>
+  <si>
+    <t>PT25.0940334S</t>
+  </si>
+  <si>
+    <t>4654b36d-d037-4ae9-9c71-acb637967690</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_53_25</t>
+  </si>
+  <si>
+    <t>03_30_2024_12_53_35</t>
+  </si>
+  <si>
+    <t>PT9.5330344S</t>
+  </si>
+  <si>
+    <t>d83525fe-dbdb-4d25-9343-fb8016caeddb</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_20_16</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_20_21</t>
+  </si>
+  <si>
+    <t>PT5.0353908S</t>
+  </si>
+  <si>
+    <t>36dd39b3-f3c2-4052-aa1c-c3075ed66594</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_20_26</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_20_33</t>
+  </si>
+  <si>
+    <t>PT7.1032084S</t>
+  </si>
+  <si>
+    <t>2d3fcb7d-652f-4378-83fd-c3bbc8bd3746</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_23_03</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_23_08</t>
+  </si>
+  <si>
+    <t>PT4.2843557S</t>
+  </si>
+  <si>
+    <t>ccc83d5a-66ea-44b1-92df-768b2de66afe</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_23_12</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_23_29</t>
+  </si>
+  <si>
+    <t>PT17.2056564S</t>
+  </si>
+  <si>
+    <t>918893a4-5375-469d-ad9a-60bf7aea36d9</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_23_33</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_23_40</t>
+  </si>
+  <si>
+    <t>PT7.7332049S</t>
+  </si>
+  <si>
+    <t>9da8bf84-e8bd-4a6f-b16e-6152e81518c1</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_35_13</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_35_20</t>
+  </si>
+  <si>
+    <t>PT6.8624461S</t>
+  </si>
+  <si>
+    <t>790c4b1f-07ae-40fd-ac48-b6ba50ae5000</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_35_22</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_35_33</t>
+  </si>
+  <si>
+    <t>PT10.8816337S</t>
+  </si>
+  <si>
+    <t>4f16533f-c4cb-4257-8a16-b0b1ff039299</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_35_26</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_35_35</t>
+  </si>
+  <si>
+    <t>PT9.426203S</t>
+  </si>
+  <si>
+    <t>ca4bcf32-df4e-4a4e-9181-086c8cb7154d</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_35_39</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_35_51</t>
+  </si>
+  <si>
+    <t>PT11.9215174S</t>
+  </si>
+  <si>
+    <t>341e997d-f588-4339-a073-95e2403342b2</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_36_02</t>
+  </si>
+  <si>
+    <t>PT22.9422268S</t>
+  </si>
+  <si>
+    <t>95bc3456-488c-41ac-852d-2e14516c0d3d</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_39_18</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_39_24</t>
+  </si>
+  <si>
+    <t>PT5.8270374S</t>
+  </si>
+  <si>
+    <t>05240bbf-82b8-4d03-a26f-be5ac3e73f95</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_39_29</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_39_37</t>
+  </si>
+  <si>
+    <t>PT8.3872408S</t>
+  </si>
+  <si>
+    <t>bd0a3f63-c0d9-4bb1-84cb-3b35f8a9bd29</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_39_40</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_39_49</t>
+  </si>
+  <si>
+    <t>PT8.7552374S</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -2624,6 +2975,606 @@
         <v>217</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="E80" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="F80" t="s" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D81" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="E81" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="F81" t="s" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="E82" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="F82" t="s" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="1">
+        <v>231</v>
+      </c>
+      <c r="E83" t="s" s="1">
+        <v>232</v>
+      </c>
+      <c r="F83" t="s" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="E84" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="F84" t="s" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="E85" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="F85" t="s" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="E86" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="F86" t="s" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D87" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="E87" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="F87" t="s" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="E88" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="F88" t="s" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="E89" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="F89" t="s" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="E90" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="F90" t="s" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="E91" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="F91" t="s" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="E92" t="s" s="1">
+        <v>266</v>
+      </c>
+      <c r="F92" t="s" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="E93" t="s" s="1">
+        <v>270</v>
+      </c>
+      <c r="F93" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="E94" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="F94" t="s" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="E95" t="s" s="1">
+        <v>278</v>
+      </c>
+      <c r="F95" t="s" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="E96" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="F96" t="s" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="E97" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="F97" t="s" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="E98" t="s" s="1">
+        <v>290</v>
+      </c>
+      <c r="F98" t="s" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s" s="1">
+        <v>293</v>
+      </c>
+      <c r="E99" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="F99" t="s" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="E100" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="F100" t="s" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="E101" t="s" s="1">
+        <v>302</v>
+      </c>
+      <c r="F101" t="s" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="E102" t="s" s="1">
+        <v>306</v>
+      </c>
+      <c r="F102" t="s" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D103" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="E103" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="F103" t="s" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="E104" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="F104" t="s" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="E105" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="F105" t="s" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D106" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="E106" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="F106" t="s" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="1">
+        <v>324</v>
+      </c>
+      <c r="E107" t="s" s="1">
+        <v>325</v>
+      </c>
+      <c r="F107" t="s" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="E108" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="F108" t="s" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="E109" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="F109" t="s" s="1">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/CampusReport.xlsx
+++ b/src/test/java/ApachePOI/Resources/CampusReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="359">
   <si>
     <t>f934faee-2c94-4c2b-b933-8c1017a07889</t>
   </si>
@@ -1025,6 +1025,78 @@
   </si>
   <si>
     <t>PT8.7552374S</t>
+  </si>
+  <si>
+    <t>642e88ee-f33f-483e-9929-f251c84abf32</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_52_35</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_52_52</t>
+  </si>
+  <si>
+    <t>PT16.1835019S</t>
+  </si>
+  <si>
+    <t>4c86ac68-2171-4f12-88d8-b81ae59e0389</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_52_56</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_53_09</t>
+  </si>
+  <si>
+    <t>PT13.1075825S</t>
+  </si>
+  <si>
+    <t>e66ec421-1d5b-4f73-9184-9e466cd994e5</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_53_12</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_53_25</t>
+  </si>
+  <si>
+    <t>PT13.2016848S</t>
+  </si>
+  <si>
+    <t>bbdf16c5-e272-4457-9ee7-313be67f4055</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_55_56</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_56_09</t>
+  </si>
+  <si>
+    <t>PT13.3282655S</t>
+  </si>
+  <si>
+    <t>1298e34a-3aac-437a-b66b-f08cc50da63f</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_56_13</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_56_27</t>
+  </si>
+  <si>
+    <t>PT13.9057702S</t>
+  </si>
+  <si>
+    <t>d3576aff-ef7a-4e83-aab3-194957a12483</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_56_30</t>
+  </si>
+  <si>
+    <t>03_30_2024_13_56_42</t>
+  </si>
+  <si>
+    <t>PT12.6440816S</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -3575,6 +3647,126 @@
         <v>334</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D110" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="E110" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="F110" t="s" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D111" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="E111" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="F111" t="s" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D112" t="s" s="1">
+        <v>344</v>
+      </c>
+      <c r="E112" t="s" s="1">
+        <v>345</v>
+      </c>
+      <c r="F112" t="s" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D113" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="E113" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="F113" t="s" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="E114" t="s" s="1">
+        <v>353</v>
+      </c>
+      <c r="F114" t="s" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D115" t="s" s="1">
+        <v>356</v>
+      </c>
+      <c r="E115" t="s" s="1">
+        <v>357</v>
+      </c>
+      <c r="F115" t="s" s="1">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
